--- a/src/test/resources/TestData/Braun/BraunTestData.xlsx
+++ b/src/test/resources/TestData/Braun/BraunTestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>UserName</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mahendr.selenium@gmail.com</t>
-  </si>
-  <si>
     <t>DataSet</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>ProductName</t>
   </si>
   <si>
-    <t>Braun Clean &amp; Charge refills 4 Pack</t>
-  </si>
-  <si>
     <t>vendorname</t>
   </si>
   <si>
@@ -142,6 +136,15 @@
   </si>
   <si>
     <t>QATEAM</t>
+  </si>
+  <si>
+    <t>Braun ThermoScan 7 with Age Precision</t>
+  </si>
+  <si>
+    <t>ShippingAddress</t>
+  </si>
+  <si>
+    <t>Aug</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,16 +497,17 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34.42578125" customWidth="1"/>
-    <col min="21" max="21" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -511,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -520,93 +524,93 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>12345</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2">
         <v>1994</v>
@@ -616,17 +620,17 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1"/>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>12345</v>
@@ -636,52 +640,78 @@
       </c>
       <c r="L3" s="4"/>
       <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
         <v>29</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1"/>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="4">
-        <v>2345234523452340</v>
+        <v>4444424444444440</v>
       </c>
       <c r="O4" s="5">
         <v>8</v>
       </c>
       <c r="P4" s="3">
-        <v>2023</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
+        <v>2021</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
       </c>
       <c r="R4" s="4">
         <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="4">
+        <v>9898989899</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="W3" r:id="rId4"/>
-    <hyperlink ref="X3" r:id="rId5"/>
+    <hyperlink ref="W3" r:id="rId2"/>
+    <hyperlink ref="X3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/src/test/resources/TestData/Braun/BraunTestData.xlsx
+++ b/src/test/resources/TestData/Braun/BraunTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>Aug</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -488,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +501,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -687,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>

--- a/src/test/resources/TestData/Braun/BraunTestData.xlsx
+++ b/src/test/resources/TestData/Braun/BraunTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
